--- a/Hospitais/extraidos/hospitais_dezembro.xlsx
+++ b/Hospitais/extraidos/hospitais_dezembro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>código</t>
   </si>
@@ -28,6 +28,18 @@
     <t>porcentagem</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -37,9 +49,6 @@
     <t>1.3</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -70,9 +79,6 @@
     <t>4.2</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -100,9 +106,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Alteração da data da cirurgia (adc)/e ou erro de agendamento</t>
   </si>
   <si>
@@ -112,9 +115,6 @@
     <t>Necessidade de leito pós-op de UTI (nlu)</t>
   </si>
   <si>
-    <t>Subistituição de paciente</t>
-  </si>
-  <si>
     <t>Pré-operatório incompleto (poi)</t>
   </si>
   <si>
@@ -145,9 +145,6 @@
     <t>Não internação hospitalar (nih)</t>
   </si>
   <si>
-    <t>Inesperada condição do paciente (icp):gravidez, tornozeleira...</t>
-  </si>
-  <si>
     <t>Falta de material cirúrgico (fmc)</t>
   </si>
   <si>
@@ -175,25 +172,25 @@
     <t>SEM INFORMES (SINF)</t>
   </si>
   <si>
-    <t>Sem cancelamentos</t>
-  </si>
-  <si>
     <t>0.65%</t>
   </si>
   <si>
+    <t>1.29%</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>4.52%</t>
+  </si>
+  <si>
     <t>1.94%</t>
   </si>
   <si>
-    <t>4.52%</t>
-  </si>
-  <si>
     <t>3.23%</t>
   </si>
   <si>
     <t>14.19%</t>
-  </si>
-  <si>
-    <t>1.29%</t>
   </si>
   <si>
     <t>9.68%</t>
@@ -569,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,11 +596,8 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -614,13 +608,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -631,13 +622,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -650,11 +638,8 @@
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -665,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -682,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +687,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -716,13 +701,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -733,13 +718,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +738,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -767,13 +752,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +772,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,13 +803,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -835,13 +820,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -852,13 +837,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -869,10 +854,10 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
         <v>59</v>
@@ -886,13 +871,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -903,13 +888,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -920,13 +905,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -937,13 +922,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -954,13 +939,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -971,13 +956,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -988,13 +973,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1005,13 +990,30 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Hospitais/extraidos/hospitais_dezembro.xlsx
+++ b/Hospitais/extraidos/hospitais_dezembro.xlsx
@@ -28,18 +28,18 @@
     <t>porcentagem</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -172,16 +172,16 @@
     <t>SEM INFORMES (SINF)</t>
   </si>
   <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>4.52%</t>
+  </si>
+  <si>
+    <t>1.29%</t>
+  </si>
+  <si>
     <t>0.65%</t>
-  </si>
-  <si>
-    <t>1.29%</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>4.52%</t>
   </si>
   <si>
     <t>1.94%</t>
@@ -594,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>53</v>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>54</v>
@@ -636,7 +636,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>55</v>
@@ -656,7 +656,7 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -673,7 +673,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -758,7 +758,7 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -809,7 +809,7 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -826,7 +826,7 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -877,7 +877,7 @@
         <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -894,7 +894,7 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -911,7 +911,7 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5">
